--- a/R_templates/qPCR/241108_example_deltadeltaCt/qPCR_241108_samples.xlsx
+++ b/R_templates/qPCR/241108_example_deltadeltaCt/qPCR_241108_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tamucs.sharepoint.com/teams/Team-BardLab/Shared Documents/Data/ThuN/qPCR/241108/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbard/Library/CloudStorage/SynologyDrive-home/repos/bardlab_rcode/R_templates/qPCR/241108_example_deltadeltaCt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F2B42506F260ED3D0D6C932E5EB6BA87E25C0ABF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A55B92-DF38-C448-A398-F0B2FFB560FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31100115-238B-9248-BD09-A7684B84132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="27120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="26880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="472">
   <si>
     <t>Well</t>
   </si>
@@ -1452,6 +1452,9 @@
   </si>
   <si>
     <t>Virus_MOI</t>
+  </si>
+  <si>
+    <t>Probe_TAMRA</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1490,6 +1493,11 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1535,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1560,6 +1568,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P225"/>
+  <dimension ref="A1:Q225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1768,12 +1779,12 @@
     <col min="3" max="6" width="10.6640625" style="2"/>
     <col min="7" max="7" width="15.33203125" style="2" customWidth="1"/>
     <col min="9" max="12" width="10.6640625" style="2"/>
-    <col min="13" max="13" width="14.33203125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="10.6640625" style="2"/>
-    <col min="16" max="16384" width="10.6640625" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="2" customWidth="1"/>
+    <col min="15" max="16" width="10.6640625" style="2"/>
+    <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1810,20 +1821,23 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1860,18 +1874,18 @@
       <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>0.1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="2" t="b">
+      <c r="P2" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1908,18 +1922,18 @@
       <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0.1</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="2" t="b">
+      <c r="P3" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1956,18 +1970,18 @@
       <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>0.1</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="2" t="b">
+      <c r="P4" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2004,18 +2018,18 @@
       <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>0.1</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="2" t="b">
+      <c r="P5" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2052,21 +2066,21 @@
       <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>0.1</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="2" t="b">
+      <c r="P6" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P6" s="1" t="b">
+      <c r="Q6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2103,18 +2117,18 @@
       <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>0.1</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="2" t="b">
+      <c r="P7" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,18 +2165,18 @@
       <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>0.1</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="2" t="b">
+      <c r="P8" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2199,18 +2213,18 @@
       <c r="L9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>0.1</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="2" t="b">
+      <c r="P9" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2247,18 +2261,18 @@
       <c r="L10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>0.1</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="2" t="b">
+      <c r="P10" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2295,18 +2309,18 @@
       <c r="L11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0.1</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="2" t="b">
+      <c r="P11" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2343,18 +2357,18 @@
       <c r="L12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>0.1</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="2" t="b">
+      <c r="P12" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -2391,18 +2405,18 @@
       <c r="L13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>0.1</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="2" t="b">
+      <c r="P13" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -2439,18 +2453,18 @@
       <c r="L14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>0.1</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="2" t="b">
+      <c r="P14" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2487,18 +2501,18 @@
       <c r="L15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>0.1</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="2" t="b">
+      <c r="P15" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,18 +2549,18 @@
       <c r="L16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>0.1</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="2" t="b">
+      <c r="P16" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,18 +2597,18 @@
       <c r="L17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>0.1</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="2" t="b">
+      <c r="P17" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2631,18 +2645,18 @@
       <c r="L18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>0.1</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="2" t="b">
+      <c r="P18" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2679,18 +2693,18 @@
       <c r="L19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>0.1</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="2" t="b">
+      <c r="P19" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -2727,18 +2741,18 @@
       <c r="L20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>0.1</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="2" t="b">
+      <c r="P20" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2775,18 +2789,18 @@
       <c r="L21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>0.1</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="2" t="b">
+      <c r="P21" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -2823,18 +2837,18 @@
       <c r="L22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>0.1</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="2" t="b">
+      <c r="P22" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2871,18 +2885,18 @@
       <c r="L23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>0.1</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="2" t="b">
+      <c r="P23" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2919,18 +2933,18 @@
       <c r="L24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>0.1</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O24" s="2" t="b">
+      <c r="P24" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2967,18 +2981,18 @@
       <c r="L25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>0.1</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="2" t="b">
+      <c r="P25" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,17 +3029,17 @@
       <c r="L26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>0.1</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="2" t="b">
+      <c r="P26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -3062,17 +3076,17 @@
       <c r="L27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>0.1</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="2" t="b">
+      <c r="P27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -3109,17 +3123,17 @@
       <c r="L28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>0.1</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="2" t="b">
+      <c r="P28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -3156,17 +3170,17 @@
       <c r="L29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>0.1</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="2" t="b">
+      <c r="P29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -3203,17 +3217,17 @@
       <c r="L30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>0.1</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="2" t="b">
+      <c r="P30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,17 +3264,17 @@
       <c r="L31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>0.1</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="2" t="b">
+      <c r="P31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -3297,17 +3311,17 @@
       <c r="L32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>0.1</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="2" t="b">
+      <c r="P32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -3344,97 +3358,97 @@
       <c r="L33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>0.1</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="2" t="b">
+      <c r="P33" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -3471,18 +3485,18 @@
       <c r="L50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>0.1</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O50" s="2" t="b">
+      <c r="P50" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>83</v>
       </c>
@@ -3519,18 +3533,18 @@
       <c r="L51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <v>0.1</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O51" s="2" t="b">
+      <c r="P51" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
@@ -3567,18 +3581,18 @@
       <c r="L52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <v>0.1</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O52" s="2" t="b">
+      <c r="P52" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>87</v>
       </c>
@@ -3615,18 +3629,18 @@
       <c r="L53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M53" s="4">
+      <c r="N53" s="4">
         <v>0.1</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O53" s="2" t="b">
+      <c r="P53" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -3663,18 +3677,18 @@
       <c r="L54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>0.1</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O54" s="2" t="b">
+      <c r="P54" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -3711,18 +3725,18 @@
       <c r="L55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M55" s="4">
+      <c r="N55" s="4">
         <v>0.1</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O55" s="2" t="b">
+      <c r="P55" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -3759,18 +3773,18 @@
       <c r="L56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="4">
+      <c r="N56" s="4">
         <v>0.1</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O56" s="2" t="b">
+      <c r="P56" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>95</v>
       </c>
@@ -3807,18 +3821,18 @@
       <c r="L57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M57" s="4">
+      <c r="N57" s="4">
         <v>0.1</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="2" t="b">
+      <c r="P57" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
@@ -3855,18 +3869,18 @@
       <c r="L58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="2">
+      <c r="N58" s="2">
         <v>0.1</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="O58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O58" s="2" t="b">
+      <c r="P58" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
@@ -3903,18 +3917,18 @@
       <c r="L59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M59" s="4">
+      <c r="N59" s="4">
         <v>0.1</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O59" s="2" t="b">
+      <c r="P59" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>99</v>
       </c>
@@ -3951,18 +3965,18 @@
       <c r="L60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M60" s="4">
+      <c r="N60" s="4">
         <v>0.1</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O60" s="2" t="b">
+      <c r="P60" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>100</v>
       </c>
@@ -3999,18 +4013,18 @@
       <c r="L61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M61" s="4">
+      <c r="N61" s="4">
         <v>0.1</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O61" s="2" t="b">
+      <c r="P61" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>101</v>
       </c>
@@ -4047,18 +4061,18 @@
       <c r="L62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="2">
+      <c r="N62" s="2">
         <v>0.1</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O62" s="2" t="b">
+      <c r="P62" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>102</v>
       </c>
@@ -4095,18 +4109,18 @@
       <c r="L63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="4">
+      <c r="N63" s="4">
         <v>0.1</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="O63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O63" s="2" t="b">
+      <c r="P63" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>103</v>
       </c>
@@ -4143,18 +4157,18 @@
       <c r="L64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M64" s="4">
+      <c r="N64" s="4">
         <v>0.1</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O64" s="2" t="b">
+      <c r="P64" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
@@ -4191,18 +4205,18 @@
       <c r="L65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="4">
+      <c r="N65" s="4">
         <v>0.1</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="2" t="b">
+      <c r="P65" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
@@ -4239,18 +4253,18 @@
       <c r="L66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M66" s="2">
+      <c r="N66" s="2">
         <v>0.1</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O66" s="2" t="b">
+      <c r="P66" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
@@ -4287,18 +4301,18 @@
       <c r="L67" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="4">
+      <c r="N67" s="4">
         <v>0.1</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="O67" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O67" s="2" t="b">
+      <c r="P67" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -4335,18 +4349,18 @@
       <c r="L68" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M68" s="4">
+      <c r="N68" s="4">
         <v>0.1</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O68" s="2" t="b">
+      <c r="P68" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -4383,18 +4397,18 @@
       <c r="L69" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M69" s="4">
+      <c r="N69" s="4">
         <v>0.1</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="O69" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O69" s="2" t="b">
+      <c r="P69" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
@@ -4431,18 +4445,18 @@
       <c r="L70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M70" s="2">
+      <c r="N70" s="2">
         <v>0.1</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="O70" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O70" s="2" t="b">
+      <c r="P70" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>110</v>
       </c>
@@ -4479,18 +4493,18 @@
       <c r="L71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="4">
+      <c r="N71" s="4">
         <v>0.1</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="O71" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O71" s="2" t="b">
+      <c r="P71" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>111</v>
       </c>
@@ -4527,18 +4541,18 @@
       <c r="L72" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M72" s="4">
+      <c r="N72" s="4">
         <v>0.1</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="O72" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="2" t="b">
+      <c r="P72" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>112</v>
       </c>
@@ -4575,18 +4589,18 @@
       <c r="L73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M73" s="4">
+      <c r="N73" s="4">
         <v>0.1</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="O73" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O73" s="2" t="b">
+      <c r="P73" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>113</v>
       </c>
@@ -4623,17 +4637,17 @@
       <c r="L74" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M74" s="2">
+      <c r="N74" s="2">
         <v>0.1</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="O74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O74" s="2" t="b">
+      <c r="P74" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>114</v>
       </c>
@@ -4670,17 +4684,17 @@
       <c r="L75" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M75" s="4">
+      <c r="N75" s="4">
         <v>0.1</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="O75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O75" s="2" t="b">
+      <c r="P75" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
@@ -4717,17 +4731,17 @@
       <c r="L76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M76" s="4">
+      <c r="N76" s="4">
         <v>0.1</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="O76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O76" s="2" t="b">
+      <c r="P76" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>116</v>
       </c>
@@ -4764,17 +4778,17 @@
       <c r="L77" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M77" s="4">
+      <c r="N77" s="4">
         <v>0.1</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="O77" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O77" s="2" t="b">
+      <c r="P77" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>117</v>
       </c>
@@ -4811,17 +4825,17 @@
       <c r="L78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M78" s="2">
+      <c r="N78" s="2">
         <v>0.1</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="O78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O78" s="2" t="b">
+      <c r="P78" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>118</v>
       </c>
@@ -4858,17 +4872,17 @@
       <c r="L79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M79" s="4">
+      <c r="N79" s="4">
         <v>0.1</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="O79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O79" s="2" t="b">
+      <c r="P79" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
@@ -4905,17 +4919,17 @@
       <c r="L80" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M80" s="4">
+      <c r="N80" s="4">
         <v>0.1</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="O80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O80" s="2" t="b">
+      <c r="P80" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>120</v>
       </c>
@@ -4952,97 +4966,97 @@
       <c r="L81" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M81" s="2">
+      <c r="N81" s="2">
         <v>0.1</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="2" t="b">
+      <c r="P81" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>137</v>
       </c>
@@ -5079,18 +5093,18 @@
       <c r="L98" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M98" s="2">
+      <c r="N98" s="2">
         <v>0.1</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="O98" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O98" s="2" t="b">
+      <c r="P98" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>139</v>
       </c>
@@ -5127,18 +5141,18 @@
       <c r="L99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M99" s="4">
+      <c r="N99" s="4">
         <v>0.1</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="O99" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O99" s="2" t="b">
+      <c r="P99" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>141</v>
       </c>
@@ -5175,18 +5189,18 @@
       <c r="L100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M100" s="4">
+      <c r="N100" s="4">
         <v>0.1</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="O100" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O100" s="2" t="b">
+      <c r="P100" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>143</v>
       </c>
@@ -5223,18 +5237,18 @@
       <c r="L101" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M101" s="4">
+      <c r="N101" s="4">
         <v>0.1</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="O101" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O101" s="2" t="b">
+      <c r="P101" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>145</v>
       </c>
@@ -5271,18 +5285,18 @@
       <c r="L102" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M102" s="2">
+      <c r="N102" s="2">
         <v>0.1</v>
       </c>
-      <c r="N102" s="4" t="s">
+      <c r="O102" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O102" s="2" t="b">
+      <c r="P102" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>147</v>
       </c>
@@ -5319,18 +5333,18 @@
       <c r="L103" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M103" s="4">
+      <c r="N103" s="4">
         <v>0.1</v>
       </c>
-      <c r="N103" s="4" t="s">
+      <c r="O103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O103" s="2" t="b">
+      <c r="P103" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>149</v>
       </c>
@@ -5367,18 +5381,18 @@
       <c r="L104" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M104" s="4">
+      <c r="N104" s="4">
         <v>0.1</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="O104" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O104" s="2" t="b">
+      <c r="P104" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -5415,18 +5429,18 @@
       <c r="L105" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M105" s="4">
+      <c r="N105" s="4">
         <v>0.1</v>
       </c>
-      <c r="N105" s="4" t="s">
+      <c r="O105" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O105" s="2" t="b">
+      <c r="P105" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>153</v>
       </c>
@@ -5463,18 +5477,18 @@
       <c r="L106" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M106" s="2">
+      <c r="N106" s="2">
         <v>0.1</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="O106" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O106" s="2" t="b">
+      <c r="P106" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>154</v>
       </c>
@@ -5511,18 +5525,18 @@
       <c r="L107" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M107" s="4">
+      <c r="N107" s="4">
         <v>0.1</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="O107" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O107" s="2" t="b">
+      <c r="P107" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>155</v>
       </c>
@@ -5559,18 +5573,18 @@
       <c r="L108" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M108" s="4">
+      <c r="N108" s="4">
         <v>0.1</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="O108" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O108" s="2" t="b">
+      <c r="P108" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>156</v>
       </c>
@@ -5607,18 +5621,18 @@
       <c r="L109" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M109" s="4">
+      <c r="N109" s="4">
         <v>0.1</v>
       </c>
-      <c r="N109" s="4" t="s">
+      <c r="O109" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O109" s="2" t="b">
+      <c r="P109" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>157</v>
       </c>
@@ -5655,18 +5669,18 @@
       <c r="L110" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M110" s="2">
+      <c r="N110" s="2">
         <v>0.1</v>
       </c>
-      <c r="N110" s="4" t="s">
+      <c r="O110" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O110" s="2" t="b">
+      <c r="P110" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>158</v>
       </c>
@@ -5703,18 +5717,18 @@
       <c r="L111" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M111" s="4">
+      <c r="N111" s="4">
         <v>0.1</v>
       </c>
-      <c r="N111" s="4" t="s">
+      <c r="O111" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O111" s="2" t="b">
+      <c r="P111" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>159</v>
       </c>
@@ -5751,18 +5765,18 @@
       <c r="L112" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M112" s="4">
+      <c r="N112" s="4">
         <v>0.1</v>
       </c>
-      <c r="N112" s="4" t="s">
+      <c r="O112" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O112" s="2" t="b">
+      <c r="P112" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>160</v>
       </c>
@@ -5799,18 +5813,18 @@
       <c r="L113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M113" s="4">
+      <c r="N113" s="4">
         <v>0.1</v>
       </c>
-      <c r="N113" s="4" t="s">
+      <c r="O113" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O113" s="2" t="b">
+      <c r="P113" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -5847,18 +5861,18 @@
       <c r="L114" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M114" s="2">
+      <c r="N114" s="2">
         <v>0.1</v>
       </c>
-      <c r="N114" s="4" t="s">
+      <c r="O114" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O114" s="2" t="b">
+      <c r="P114" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>162</v>
       </c>
@@ -5895,18 +5909,18 @@
       <c r="L115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M115" s="4">
+      <c r="N115" s="4">
         <v>0.1</v>
       </c>
-      <c r="N115" s="4" t="s">
+      <c r="O115" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O115" s="2" t="b">
+      <c r="P115" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>163</v>
       </c>
@@ -5943,18 +5957,18 @@
       <c r="L116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M116" s="4">
+      <c r="N116" s="4">
         <v>0.1</v>
       </c>
-      <c r="N116" s="4" t="s">
+      <c r="O116" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O116" s="2" t="b">
+      <c r="P116" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>164</v>
       </c>
@@ -5991,18 +6005,18 @@
       <c r="L117" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M117" s="4">
+      <c r="N117" s="4">
         <v>0.1</v>
       </c>
-      <c r="N117" s="4" t="s">
+      <c r="O117" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O117" s="2" t="b">
+      <c r="P117" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>165</v>
       </c>
@@ -6039,18 +6053,18 @@
       <c r="L118" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M118" s="2">
+      <c r="N118" s="2">
         <v>0.1</v>
       </c>
-      <c r="N118" s="4" t="s">
+      <c r="O118" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O118" s="2" t="b">
+      <c r="P118" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>166</v>
       </c>
@@ -6087,18 +6101,18 @@
       <c r="L119" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M119" s="4">
+      <c r="N119" s="4">
         <v>0.1</v>
       </c>
-      <c r="N119" s="4" t="s">
+      <c r="O119" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O119" s="2" t="b">
+      <c r="P119" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>167</v>
       </c>
@@ -6135,18 +6149,18 @@
       <c r="L120" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M120" s="4">
+      <c r="N120" s="4">
         <v>0.1</v>
       </c>
-      <c r="N120" s="4" t="s">
+      <c r="O120" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O120" s="2" t="b">
+      <c r="P120" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>168</v>
       </c>
@@ -6183,18 +6197,18 @@
       <c r="L121" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M121" s="4">
+      <c r="N121" s="4">
         <v>0.1</v>
       </c>
-      <c r="N121" s="4" t="s">
+      <c r="O121" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O121" s="2" t="b">
+      <c r="P121" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>169</v>
       </c>
@@ -6231,17 +6245,17 @@
       <c r="L122" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M122" s="2">
+      <c r="N122" s="2">
         <v>0.1</v>
       </c>
-      <c r="N122" s="4" t="s">
+      <c r="O122" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O122" s="2" t="b">
+      <c r="P122" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>170</v>
       </c>
@@ -6278,17 +6292,17 @@
       <c r="L123" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M123" s="4">
+      <c r="N123" s="4">
         <v>0.1</v>
       </c>
-      <c r="N123" s="4" t="s">
+      <c r="O123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O123" s="2" t="b">
+      <c r="P123" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>171</v>
       </c>
@@ -6325,17 +6339,17 @@
       <c r="L124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M124" s="4">
+      <c r="N124" s="4">
         <v>0.1</v>
       </c>
-      <c r="N124" s="4" t="s">
+      <c r="O124" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O124" s="2" t="b">
+      <c r="P124" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>172</v>
       </c>
@@ -6372,17 +6386,17 @@
       <c r="L125" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M125" s="4">
+      <c r="N125" s="4">
         <v>0.1</v>
       </c>
-      <c r="N125" s="4" t="s">
+      <c r="O125" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O125" s="2" t="b">
+      <c r="P125" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>173</v>
       </c>
@@ -6419,17 +6433,17 @@
       <c r="L126" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M126" s="2">
+      <c r="N126" s="2">
         <v>0.1</v>
       </c>
-      <c r="N126" s="4" t="s">
+      <c r="O126" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O126" s="2" t="b">
+      <c r="P126" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>174</v>
       </c>
@@ -6466,17 +6480,17 @@
       <c r="L127" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M127" s="4">
+      <c r="N127" s="4">
         <v>0.1</v>
       </c>
-      <c r="N127" s="4" t="s">
+      <c r="O127" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O127" s="2" t="b">
+      <c r="P127" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>175</v>
       </c>
@@ -6513,17 +6527,17 @@
       <c r="L128" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M128" s="4">
+      <c r="N128" s="4">
         <v>0.1</v>
       </c>
-      <c r="N128" s="4" t="s">
+      <c r="O128" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O128" s="2" t="b">
+      <c r="P128" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>176</v>
       </c>
@@ -6560,97 +6574,97 @@
       <c r="L129" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M129" s="2">
+      <c r="N129" s="2">
         <v>0.1</v>
       </c>
-      <c r="N129" s="4" t="s">
+      <c r="O129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O129" s="2" t="b">
+      <c r="P129" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>193</v>
       </c>
@@ -6687,17 +6701,17 @@
       <c r="L146" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M146" s="2">
+      <c r="N146" s="2">
         <v>0.1</v>
       </c>
-      <c r="N146" s="4" t="s">
+      <c r="O146" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O146" s="2" t="b">
+      <c r="P146" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>195</v>
       </c>
@@ -6734,17 +6748,17 @@
       <c r="L147" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M147" s="4">
+      <c r="N147" s="4">
         <v>0.1</v>
       </c>
-      <c r="N147" s="4" t="s">
+      <c r="O147" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O147" s="2" t="b">
+      <c r="P147" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>197</v>
       </c>
@@ -6781,17 +6795,17 @@
       <c r="L148" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M148" s="4">
+      <c r="N148" s="4">
         <v>0.1</v>
       </c>
-      <c r="N148" s="4" t="s">
+      <c r="O148" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O148" s="2" t="b">
+      <c r="P148" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>199</v>
       </c>
@@ -6828,17 +6842,17 @@
       <c r="L149" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M149" s="4">
+      <c r="N149" s="4">
         <v>0.1</v>
       </c>
-      <c r="N149" s="4" t="s">
+      <c r="O149" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O149" s="2" t="b">
+      <c r="P149" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>201</v>
       </c>
@@ -6875,17 +6889,17 @@
       <c r="L150" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M150" s="2">
+      <c r="N150" s="2">
         <v>0.1</v>
       </c>
-      <c r="N150" s="4" t="s">
+      <c r="O150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O150" s="2" t="b">
+      <c r="P150" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>203</v>
       </c>
@@ -6922,17 +6936,17 @@
       <c r="L151" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M151" s="4">
+      <c r="N151" s="4">
         <v>0.1</v>
       </c>
-      <c r="N151" s="4" t="s">
+      <c r="O151" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O151" s="2" t="b">
+      <c r="P151" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>205</v>
       </c>
@@ -6941,11 +6955,11 @@
       <c r="G152"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="M152"/>
-      <c r="N152" s="4"/>
-      <c r="O152"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N152"/>
+      <c r="O152" s="4"/>
+      <c r="P152"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>206</v>
       </c>
@@ -6954,11 +6968,11 @@
       <c r="G153"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="M153"/>
-      <c r="N153" s="4"/>
-      <c r="O153"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N153"/>
+      <c r="O153" s="4"/>
+      <c r="P153"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>207</v>
       </c>
@@ -6995,17 +7009,17 @@
       <c r="L154" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M154" s="2">
+      <c r="N154" s="2">
         <v>0.1</v>
       </c>
-      <c r="N154" s="4" t="s">
+      <c r="O154" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O154" s="2" t="b">
+      <c r="P154" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>208</v>
       </c>
@@ -7042,17 +7056,17 @@
       <c r="L155" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M155" s="4">
+      <c r="N155" s="4">
         <v>0.1</v>
       </c>
-      <c r="N155" s="4" t="s">
+      <c r="O155" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O155" s="2" t="b">
+      <c r="P155" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>209</v>
       </c>
@@ -7089,17 +7103,17 @@
       <c r="L156" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M156" s="4">
+      <c r="N156" s="4">
         <v>0.1</v>
       </c>
-      <c r="N156" s="4" t="s">
+      <c r="O156" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O156" s="2" t="b">
+      <c r="P156" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>210</v>
       </c>
@@ -7136,17 +7150,17 @@
       <c r="L157" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M157" s="4">
+      <c r="N157" s="4">
         <v>0.1</v>
       </c>
-      <c r="N157" s="4" t="s">
+      <c r="O157" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O157" s="2" t="b">
+      <c r="P157" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>211</v>
       </c>
@@ -7183,17 +7197,17 @@
       <c r="L158" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M158" s="2">
+      <c r="N158" s="2">
         <v>0.1</v>
       </c>
-      <c r="N158" s="4" t="s">
+      <c r="O158" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O158" s="2" t="b">
+      <c r="P158" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>212</v>
       </c>
@@ -7230,27 +7244,27 @@
       <c r="L159" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M159" s="4">
+      <c r="N159" s="4">
         <v>0.1</v>
       </c>
-      <c r="N159" s="4" t="s">
+      <c r="O159" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O159" s="2" t="b">
+      <c r="P159" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>215</v>
       </c>
@@ -7287,17 +7301,17 @@
       <c r="L162" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M162" s="2">
+      <c r="N162" s="2">
         <v>0.1</v>
       </c>
-      <c r="N162" s="4" t="s">
+      <c r="O162" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O162" s="2" t="b">
+      <c r="P162" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>216</v>
       </c>
@@ -7334,17 +7348,17 @@
       <c r="L163" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M163" s="4">
+      <c r="N163" s="4">
         <v>0.1</v>
       </c>
-      <c r="N163" s="4" t="s">
+      <c r="O163" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O163" s="2" t="b">
+      <c r="P163" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>217</v>
       </c>
@@ -7381,17 +7395,17 @@
       <c r="L164" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M164" s="4">
+      <c r="N164" s="4">
         <v>0.1</v>
       </c>
-      <c r="N164" s="4" t="s">
+      <c r="O164" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O164" s="2" t="b">
+      <c r="P164" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>218</v>
       </c>
@@ -7428,17 +7442,17 @@
       <c r="L165" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M165" s="4">
+      <c r="N165" s="4">
         <v>0.1</v>
       </c>
-      <c r="N165" s="4" t="s">
+      <c r="O165" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O165" s="2" t="b">
+      <c r="P165" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>219</v>
       </c>
@@ -7475,17 +7489,17 @@
       <c r="L166" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M166" s="2">
+      <c r="N166" s="2">
         <v>0.1</v>
       </c>
-      <c r="N166" s="4" t="s">
+      <c r="O166" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O166" s="2" t="b">
+      <c r="P166" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>220</v>
       </c>
@@ -7522,27 +7536,27 @@
       <c r="L167" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M167" s="4">
+      <c r="N167" s="4">
         <v>0.1</v>
       </c>
-      <c r="N167" s="4" t="s">
+      <c r="O167" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O167" s="2" t="b">
+      <c r="P167" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>223</v>
       </c>
@@ -7579,17 +7593,17 @@
       <c r="L170" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M170" s="2">
+      <c r="N170" s="2">
         <v>0.1</v>
       </c>
-      <c r="N170" s="4" t="s">
+      <c r="O170" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O170" s="2" t="b">
+      <c r="P170" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -7626,17 +7640,17 @@
       <c r="L171" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M171" s="4">
+      <c r="N171" s="4">
         <v>0.1</v>
       </c>
-      <c r="N171" s="4" t="s">
+      <c r="O171" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O171" s="2" t="b">
+      <c r="P171" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>225</v>
       </c>
@@ -7673,17 +7687,17 @@
       <c r="L172" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M172" s="4">
+      <c r="N172" s="4">
         <v>0.1</v>
       </c>
-      <c r="N172" s="4" t="s">
+      <c r="O172" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O172" s="2" t="b">
+      <c r="P172" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>226</v>
       </c>
@@ -7720,17 +7734,17 @@
       <c r="L173" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M173" s="4">
+      <c r="N173" s="4">
         <v>0.1</v>
       </c>
-      <c r="N173" s="4" t="s">
+      <c r="O173" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O173" s="2" t="b">
+      <c r="P173" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>227</v>
       </c>
@@ -7767,17 +7781,17 @@
       <c r="L174" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M174" s="2">
+      <c r="N174" s="2">
         <v>0.1</v>
       </c>
-      <c r="N174" s="4" t="s">
+      <c r="O174" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O174" s="2" t="b">
+      <c r="P174" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>228</v>
       </c>
@@ -7814,17 +7828,17 @@
       <c r="L175" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M175" s="4">
+      <c r="N175" s="4">
         <v>0.1</v>
       </c>
-      <c r="N175" s="4" t="s">
+      <c r="O175" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O175" s="2" t="b">
+      <c r="P175" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>229</v>
       </c>
@@ -10402,7 +10416,7 @@
         <v>279</v>
       </c>
       <c r="B74" s="6">
-        <f t="shared" ref="B74:B105" si="13">B66+1</f>
+        <f t="shared" ref="B74:B97" si="13">B66+1</f>
         <v>10</v>
       </c>
       <c r="C74" s="7" t="str">
@@ -22145,7 +22159,7 @@
         <v>2</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H258" si="13">CONCATENATE(F195,G195)</f>
+        <f t="shared" ref="H195:H226" si="13">CONCATENATE(F195,G195)</f>
         <v>N2</v>
       </c>
       <c r="I195" t="s">
@@ -22618,7 +22632,7 @@
         <v>165</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" ref="F211:F274" si="14">CHAR(CODE(F195)+1)</f>
+        <f t="shared" ref="F211:F226" si="14">CHAR(CODE(F195)+1)</f>
         <v>O</v>
       </c>
       <c r="G211">
@@ -25004,7 +25018,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="str">
-        <f t="shared" ref="A347:A410" si="19">CHAR(CODE(A323)+1)</f>
+        <f t="shared" ref="A347:A386" si="19">CHAR(CODE(A323)+1)</f>
         <v>O</v>
       </c>
       <c r="B347">
@@ -31336,7 +31350,7 @@
         <v>279</v>
       </c>
       <c r="B339">
-        <f t="shared" ref="B339:B402" si="53">B323+1</f>
+        <f t="shared" ref="B339:B386" si="53">B323+1</f>
         <v>22</v>
       </c>
       <c r="C339" t="str">
@@ -32148,26 +32162,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="22d16d7c-907d-44e9-9b54-859705a00ce7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4af7103f-4b1f-4d80-bcaf-354ce1ac9031">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041D1F130843BB444883E55F2A2A00A88" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bd46da1489cf4500bf16220b2a2a5a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4af7103f-4b1f-4d80-bcaf-354ce1ac9031" xmlns:ns3="22d16d7c-907d-44e9-9b54-859705a00ce7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a57d29944b3de1672d6c207fa41da952" ns2:_="" ns3:_="">
     <xsd:import namespace="4af7103f-4b1f-4d80-bcaf-354ce1ac9031"/>
@@ -32396,32 +32390,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3206CD-4F25-4E94-9875-6D0352FE3B84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22d16d7c-907d-44e9-9b54-859705a00ce7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4af7103f-4b1f-4d80-bcaf-354ce1ac9031"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{811D7B46-7C35-4E3A-BD8E-4C7797FB9BCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="22d16d7c-907d-44e9-9b54-859705a00ce7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4af7103f-4b1f-4d80-bcaf-354ce1ac9031">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1FB554-A521-4436-B773-E281FB10A064}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32438,4 +32427,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{811D7B46-7C35-4E3A-BD8E-4C7797FB9BCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3206CD-4F25-4E94-9875-6D0352FE3B84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22d16d7c-907d-44e9-9b54-859705a00ce7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4af7103f-4b1f-4d80-bcaf-354ce1ac9031"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>